--- a/Exc2/FURPS_table.xlsx
+++ b/Exc2/FURPS_table.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Код</t>
   </si>
@@ -40,137 +40,140 @@
     <t>Клиент выбирает сумму, срок и счёт, получает персонализированные ставки.</t>
   </si>
   <si>
-    <t>Разработать модуль шифрования трафика для передачи данных с сайта и интернет-банка.</t>
+    <t>Обеспечить менеджеру бэк-офиса функционал обработки заявок через АБС с подтверждением условий депозита.</t>
+  </si>
+  <si>
+    <t>Необходимо подтвердить ставку и открыть депозит.</t>
+  </si>
+  <si>
+    <t>Реализовать возможность отправки клиенту СМС-уведомлений после подтверждения ставки и открытия депозита.</t>
+  </si>
+  <si>
+    <t>Функционал для взаимодействия с клиентами на всех этапах.</t>
+  </si>
+  <si>
+    <t>Разработать единое хранилище для ставок по депозитам и кредитам.</t>
+  </si>
+  <si>
+    <t>Данные должны быть доступны сотрудникам бэк-офисов. Ведение ставок в XLS-файлах непрактично.</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Удобство использования (Usability)</t>
+  </si>
+  <si>
+    <t>Интерфейс интернет-банка и сайта должен быть удобным и соответствовать принятой системе дизайна.</t>
+  </si>
+  <si>
+    <t>Использование привычных цветов и брендированных элементов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отклик интерфейсов должен быть минимальным (в пределах миллисекунд).        </t>
+  </si>
+  <si>
+    <t>Оптимизация времени загрузки справочных данных.</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Надёжность (Reliability)</t>
+  </si>
+  <si>
+    <t>Сервисы интернет-банка и сайта должны быть доступны 99,9% времени.</t>
+  </si>
+  <si>
+    <t>Необходимо предусмотреть обработку сбоев и переключение на резервный ЦОД.</t>
+  </si>
+  <si>
+    <t>Сервисы должны обеспечивать горизонтальное масштабирование.</t>
+  </si>
+  <si>
+    <t>Это особенно важно для интернет-банка, так как АБС может масштабироваться только вертикально.</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Производительность (Performance)</t>
+  </si>
+  <si>
+    <t>Система должна выдерживать нагрузку в условиях роста количества заявок.</t>
+  </si>
+  <si>
+    <t>Учитывая, что база данных АБС перегружена, важно минимизировать взаимодействие интернет-банка напрямую с API АБС.</t>
+  </si>
+  <si>
+    <t>Запросы в интернет-банке должны обрабатываться равномерно и быстро.</t>
+  </si>
+  <si>
+    <t>Использование распределения нагрузки между серверами и ЦОД.</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Поддерживаемость (Supportability)</t>
+  </si>
+  <si>
+    <t>Использовать существующие технологии в банке, включая MS SQL, Oracle и Kafka.</t>
+  </si>
+  <si>
+    <t>Новые технологии должны быть совместимы с текущими платформами разработки.</t>
+  </si>
+  <si>
+    <t>Обеспечить, чтобы системы были совместимы с текущими языками программирования, на которых работает команда.</t>
+  </si>
+  <si>
+    <t>Минимизация времени на обучение и доработку.</t>
+  </si>
+  <si>
+    <t>Предусмотреть разработку документации для дальнейшего масштабирования и поддержки системы.</t>
+  </si>
+  <si>
+    <t>Упрощение ввода новых разработчиков в процесс.</t>
+  </si>
+  <si>
+    <t>+R</t>
+  </si>
+  <si>
+    <t>+ Ограничения (Restricitions)</t>
+  </si>
+  <si>
+    <t>Scalability (Масштабируемость)</t>
+  </si>
+  <si>
+    <t>Планировать переход интернет-банка на микросервисную архитектуру в рамках задачи открытия депозитов.</t>
+  </si>
+  <si>
+    <t>Повышение гибкости системы и возможности её дальнейшего масштабирования.</t>
+  </si>
+  <si>
+    <t>Compatibility (Совместимость)</t>
+  </si>
+  <si>
+    <t>Интернет-банк должен быть совместим с новыми технологиями (Kafka).</t>
+  </si>
+  <si>
+    <t>Для реализации горизонтального масштабирования и распределения нагрузки в будущем.</t>
+  </si>
+  <si>
+    <t>Security (Безопасность)</t>
+  </si>
+  <si>
+    <t>Обеспечить шифрования трафика для передачи данных с сайта и интернет-банка.</t>
   </si>
   <si>
     <t>Обеспечение защиты данных клиентов.</t>
-  </si>
-  <si>
-    <t>Обеспечить менеджеру бэк-офиса функционал обработки заявок через АБС с подтверждением условий депозита.</t>
-  </si>
-  <si>
-    <t>Необходимо подтвердить ставку и открыть депозит.</t>
-  </si>
-  <si>
-    <t>Реализовать возможность отправки клиенту СМС-уведомлений после подтверждения ставки и открытия депозита.</t>
-  </si>
-  <si>
-    <t>Функционал для взаимодействия с клиентами на всех этапах.</t>
-  </si>
-  <si>
-    <t>Разработать единое хранилище для ставок по депозитам и кредитам.</t>
-  </si>
-  <si>
-    <t>Данные должны быть доступны сотрудникам бэк-офисов. Ведение ставок в XLS-файлах непрактично.</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Удобство использования (Usability)</t>
-  </si>
-  <si>
-    <t>Интерфейс интернет-банка и сайта должен быть удобным и соответствовать принятой системе дизайна.</t>
-  </si>
-  <si>
-    <t>Использование привычных цветов и брендированных элементов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отклик интерфейсов должен быть минимальным (в пределах миллисекунд).	</t>
-  </si>
-  <si>
-    <t>Оптимизация времени загрузки справочных данных.</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Надёжность (Reliability)</t>
-  </si>
-  <si>
-    <t>Сервисы интернет-банка и сайта должны быть доступны 99,9% времени.</t>
-  </si>
-  <si>
-    <t>Необходимо предусмотреть обработку сбоев и переключение на резервный ЦОД.</t>
-  </si>
-  <si>
-    <t>Сервисы должны обеспечивать горизонтальное масштабирование.</t>
-  </si>
-  <si>
-    <t>Это особенно важно для интернет-банка, так как АБС может масштабироваться только вертикально.</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Производительность (Performance)</t>
-  </si>
-  <si>
-    <t>Система должна выдерживать нагрузку в условиях роста количества заявок.</t>
-  </si>
-  <si>
-    <t>Учитывая, что база данных АБС перегружена, важно минимизировать взаимодействие интернет-банка напрямую с API АБС.</t>
-  </si>
-  <si>
-    <t>Запросы в интернет-банке должны обрабатываться равномерно и быстро.</t>
-  </si>
-  <si>
-    <t>Использование распределения нагрузки между серверами и ЦОД.</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Поддерживаемость (Supportability)</t>
-  </si>
-  <si>
-    <t>Использовать существующие технологии в банке, включая MS SQL, Oracle и Kafka.</t>
-  </si>
-  <si>
-    <t>Новые технологии должны быть совместимы с текущими платформами разработки.</t>
-  </si>
-  <si>
-    <t>Предусмотреть разработку документации для дальнейшего масштабирования и поддержки системы.</t>
-  </si>
-  <si>
-    <t>Упрощение ввода новых разработчиков в процесс.</t>
-  </si>
-  <si>
-    <t>Обеспечить, чтобы системы были совместимы с текущими языками программирования, на которых работает команда.</t>
-  </si>
-  <si>
-    <t>Минимизация времени на обучение и доработку.</t>
-  </si>
-  <si>
-    <t>+R</t>
-  </si>
-  <si>
-    <t>+ Ограничения (Restricitions)</t>
-  </si>
-  <si>
-    <t>Scalability (Масштабируемость)</t>
-  </si>
-  <si>
-    <t>Планировать переход интернет-банка на микросервисную архитектуру в рамках задачи открытия депозитов.</t>
-  </si>
-  <si>
-    <t>Повышение гибкости системы и возможности её дальнейшего масштабирования.</t>
-  </si>
-  <si>
-    <t>Compatibility (Совместимость)</t>
-  </si>
-  <si>
-    <t>Интернет-банк должен быть совместим с новыми технологиями (Kafka).</t>
-  </si>
-  <si>
-    <t>Для реализации горизонтального масштабирования и распределения нагрузки в будущем.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -199,6 +202,12 @@
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="5">
@@ -269,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -291,6 +300,9 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="30.0" customHeight="1">
+    <row r="6" ht="63.0" customHeight="1">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
         <v>7</v>
@@ -555,7 +567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="30.0" customHeight="1">
+    <row r="7" ht="72.75" customHeight="1">
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
         <v>9</v>
@@ -573,8 +585,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="30.0" customHeight="1">
-      <c r="B9" s="5"/>
+    <row r="9" ht="59.25" customHeight="1">
+      <c r="B9" s="7"/>
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
@@ -582,26 +594,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="59.25" customHeight="1">
-      <c r="B10" s="7"/>
-      <c r="C10" s="6" t="s">
+    <row r="10" ht="30.0" customHeight="1">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" ht="30.0" customHeight="1">
-      <c r="B11" s="2" t="s">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4"/>
     </row>
     <row r="12" ht="30.0" customHeight="1">
-      <c r="B12" s="5"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
@@ -610,25 +622,25 @@
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
-      <c r="B13" s="7"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" ht="30.0" customHeight="1">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" ht="30.0" customHeight="1">
-      <c r="B15" s="5"/>
+    </row>
+    <row r="15" ht="54.0" customHeight="1">
+      <c r="B15" s="7"/>
       <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
@@ -636,26 +648,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" ht="54.0" customHeight="1">
-      <c r="B16" s="7"/>
-      <c r="C16" s="6" t="s">
+    <row r="16" ht="30.0" customHeight="1">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" ht="30.0" customHeight="1">
-      <c r="B17" s="2" t="s">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" ht="63.0" customHeight="1">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" ht="63.0" customHeight="1">
-      <c r="B18" s="5"/>
+    </row>
+    <row r="18" ht="53.25" customHeight="1">
+      <c r="B18" s="7"/>
       <c r="C18" s="6" t="s">
         <v>31</v>
       </c>
@@ -664,25 +676,25 @@
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" ht="30.0" customHeight="1">
-      <c r="B20" s="2" t="s">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" ht="66.0" customHeight="1">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" ht="30.0" customHeight="1">
-      <c r="B21" s="5"/>
+    </row>
+    <row r="21" ht="65.25" customHeight="1">
+      <c r="B21" s="7"/>
       <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
@@ -690,7 +702,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" ht="30.0" customHeight="1">
+    <row r="22" ht="59.25" customHeight="1">
       <c r="B22" s="7"/>
       <c r="C22" s="6" t="s">
         <v>39</v>
@@ -700,60 +712,64 @@
       </c>
     </row>
     <row r="23" ht="30.0" customHeight="1">
-      <c r="B23" s="7"/>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" ht="30.0" customHeight="1">
-      <c r="B24" s="2" t="s">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" ht="35.25" customHeight="1">
+      <c r="B24" s="5"/>
+      <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" ht="72.0" customHeight="1">
+      <c r="B25" s="2"/>
+      <c r="C25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" ht="35.25" customHeight="1">
-      <c r="B25" s="5"/>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" ht="72.0" customHeight="1">
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
       <c r="B26" s="2"/>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="4"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="B28" s="2"/>
-      <c r="C28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="B29" s="2"/>
+      <c r="C29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="B30" s="2"/>
+      <c r="C30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1"/>
     <row r="32" ht="12.75" customHeight="1"/>
@@ -1729,17 +1745,17 @@
     <row r="1002" ht="12.75" customHeight="1"/>
     <row r="1003" ht="12.75" customHeight="1"/>
     <row r="1004" ht="12.75" customHeight="1"/>
-    <row r="1005" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Exc2/FURPS_table.xlsx
+++ b/Exc2/FURPS_table.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Код</t>
   </si>
@@ -149,6 +149,36 @@
   </si>
   <si>
     <t>Повышение гибкости системы и возможности её дальнейшего масштабирования.</t>
+  </si>
+  <si>
+    <t>Не нужно нагружать базу АБС данными, которые ей не нужны в данный момент</t>
+  </si>
+  <si>
+    <t>Система АБС на данный момент плохо масштабирутеся, поэтому не стоит ее нагружать лишними данными</t>
+  </si>
+  <si>
+    <t>Нужно использовать микросервисную архитектуру при разработке в интернет-банке</t>
+  </si>
+  <si>
+    <t>Это нужно с перспективной на дальнейшее развитие функционала</t>
+  </si>
+  <si>
+    <t>Не дорабатывать функционал подрядчика в интернет-банке</t>
+  </si>
+  <si>
+    <t>Стоит двигаться в сторону микросервисной архитектуры и не менять ядро системы</t>
+  </si>
+  <si>
+    <t>АБС поддерживает только вертикальное масштабирование</t>
+  </si>
+  <si>
+    <t>Стоит учитывать это при разработке и учитывать при распределении нагрузки</t>
+  </si>
+  <si>
+    <t>Следует избегать прямого обмена данными между онлайн-банком и АБС</t>
+  </si>
+  <si>
+    <t>Хочется избежать прямой зависимости фунционала подрядчика от внутренней системы</t>
   </si>
   <si>
     <t>Compatibility (Совместимость)</t>
@@ -736,46 +766,86 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" ht="63.0" customHeight="1">
       <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
+      <c r="D26" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" ht="72.0" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" ht="72.0" customHeight="1">
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
+      <c r="C28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" ht="72.0" customHeight="1">
       <c r="B29" s="2"/>
-      <c r="C29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
+      <c r="C29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" ht="72.0" customHeight="1">
       <c r="B30" s="2"/>
       <c r="C30" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="B32" s="2"/>
+      <c r="C32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="B34" s="2"/>
+      <c r="C34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="B35" s="2"/>
+      <c r="C35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="36" ht="12.75" customHeight="1"/>
     <row r="37" ht="12.75" customHeight="1"/>
     <row r="38" ht="12.75" customHeight="1"/>
@@ -1745,10 +1815,15 @@
     <row r="1002" ht="12.75" customHeight="1"/>
     <row r="1003" ht="12.75" customHeight="1"/>
     <row r="1004" ht="12.75" customHeight="1"/>
+    <row r="1005" ht="12.75" customHeight="1"/>
+    <row r="1006" ht="12.75" customHeight="1"/>
+    <row r="1007" ht="12.75" customHeight="1"/>
+    <row r="1008" ht="12.75" customHeight="1"/>
+    <row r="1009" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C13:D13"/>
